--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H2">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I2">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J2">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N2">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O2">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P2">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q2">
-        <v>16.88264672087378</v>
+        <v>4.051679205264444</v>
       </c>
       <c r="R2">
-        <v>151.943820487864</v>
+        <v>36.46511284738</v>
       </c>
       <c r="S2">
-        <v>0.02505985538037673</v>
+        <v>0.00670633830895921</v>
       </c>
       <c r="T2">
-        <v>0.02505985538037673</v>
+        <v>0.006706338308959211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H3">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I3">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J3">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N3">
         <v>11.455626</v>
       </c>
       <c r="O3">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P3">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q3">
-        <v>2.467692036385334</v>
+        <v>0.6249744049033333</v>
       </c>
       <c r="R3">
-        <v>22.20922832746801</v>
+        <v>5.624769644130001</v>
       </c>
       <c r="S3">
-        <v>0.003662933103887352</v>
+        <v>0.001034457463531754</v>
       </c>
       <c r="T3">
-        <v>0.003662933103887353</v>
+        <v>0.001034457463531754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H4">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I4">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J4">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N4">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O4">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P4">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q4">
-        <v>3.971902619507334</v>
+        <v>0.5429539836733333</v>
       </c>
       <c r="R4">
-        <v>35.747123575566</v>
+        <v>4.88658585306</v>
       </c>
       <c r="S4">
-        <v>0.005895716878724198</v>
+        <v>0.0008986972848144903</v>
       </c>
       <c r="T4">
-        <v>0.005895716878724199</v>
+        <v>0.0008986972848144906</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>45.968478</v>
       </c>
       <c r="I5">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J5">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N5">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O5">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P5">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q5">
-        <v>400.3003914804826</v>
+        <v>379.3230749386586</v>
       </c>
       <c r="R5">
-        <v>3602.703523324344</v>
+        <v>3413.907674447928</v>
       </c>
       <c r="S5">
-        <v>0.594188226826196</v>
+        <v>0.6278554495696554</v>
       </c>
       <c r="T5">
-        <v>0.5941882268261961</v>
+        <v>0.6278554495696556</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>45.968478</v>
       </c>
       <c r="I6">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J6">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N6">
         <v>11.455626</v>
       </c>
       <c r="O6">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P6">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q6">
         <v>58.51085463969201</v>
@@ -818,10 +818,10 @@
         <v>526.5976917572281</v>
       </c>
       <c r="S6">
-        <v>0.08685092922308321</v>
+        <v>0.09684715054692973</v>
       </c>
       <c r="T6">
-        <v>0.08685092922308323</v>
+        <v>0.09684715054692974</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>45.968478</v>
       </c>
       <c r="I7">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J7">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N7">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O7">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P7">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q7">
-        <v>94.176831381854</v>
+        <v>50.832004263704</v>
       </c>
       <c r="R7">
-        <v>847.591482436686</v>
+        <v>457.488038373336</v>
       </c>
       <c r="S7">
-        <v>0.1397919303549366</v>
+        <v>0.08413711951131789</v>
       </c>
       <c r="T7">
-        <v>0.1397919303549366</v>
+        <v>0.0841371195113179</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H8">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N8">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O8">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P8">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q8">
-        <v>70.49390058767466</v>
+        <v>85.59711473655378</v>
       </c>
       <c r="R8">
-        <v>634.445105289072</v>
+        <v>770.374032628984</v>
       </c>
       <c r="S8">
-        <v>0.1046380335461021</v>
+        <v>0.1416803208280309</v>
       </c>
       <c r="T8">
-        <v>0.1046380335461021</v>
+        <v>0.1416803208280309</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H9">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N9">
         <v>11.455626</v>
       </c>
       <c r="O9">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P9">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q9">
-        <v>10.303907910296</v>
+        <v>13.20341595020933</v>
       </c>
       <c r="R9">
-        <v>92.73517119266403</v>
+        <v>118.830743551884</v>
       </c>
       <c r="S9">
-        <v>0.01529466595812137</v>
+        <v>0.02185429045837618</v>
       </c>
       <c r="T9">
-        <v>0.01529466595812137</v>
+        <v>0.02185429045837618</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H10">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N10">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O10">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P10">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q10">
-        <v>16.584775659452</v>
+        <v>11.47062540804533</v>
       </c>
       <c r="R10">
-        <v>149.262980935068</v>
+        <v>103.235628672408</v>
       </c>
       <c r="S10">
-        <v>0.02461770872857243</v>
+        <v>0.01898617602838439</v>
       </c>
       <c r="T10">
-        <v>0.02461770872857244</v>
+        <v>0.01898617602838439</v>
       </c>
     </row>
   </sheetData>
